--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393261.4674651836</v>
+        <v>390559.8195626488</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.1986582043251</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>145.198658204325</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.3946960015974</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>179.9896253540988</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>356.0261917321606</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>326.4946941625221</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.87073484362677</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>110.3180985023126</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
@@ -1032,16 +1032,16 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>148.7016668837202</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.3685669536094</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.44547188632115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>204.6362302492063</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.83088445038201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151411</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>284.624074086048</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>15.73210470263667</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436609</v>
+        <v>94.29488917436611</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433997</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282973</v>
+        <v>30.34503645282979</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>122.1903384581974</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>143.5036086043507</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>234.6760972201868</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F11" t="n">
-        <v>319.0545715777699</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544491</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108858</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.725435227819</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>105.2711982404705</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833257</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272939</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>116.2836593751502</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695501</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465702</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.36569740310149</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833772</v>
+        <v>99.97427419833919</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>45.66054613217952</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427976</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6315337216688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>46.13809394730852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.5813113004301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788180015</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833828</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>243.1373908222619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,13 +3746,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>214.4033048062047</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>224.1675592379417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487949</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487949</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323101</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148101</v>
+        <v>224.59746731481</v>
       </c>
       <c r="F2" t="n">
         <v>217.6519665656066</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
@@ -4340,40 +4340,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487949</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>414.0172523312948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>51.76436616683833</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>51.76436616683833</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="T3" t="n">
-        <v>568.2946462874022</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="U3" t="n">
-        <v>378.8748612709174</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="V3" t="n">
-        <v>378.8748612709174</v>
+        <v>409.3994882033911</v>
       </c>
       <c r="W3" t="n">
-        <v>378.8748612709174</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="X3" t="n">
-        <v>189.4550762544326</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.4550762544326</v>
+        <v>219.9797031869064</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230176</v>
@@ -4522,16 +4522,16 @@
         <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1061.515787985911</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="C5" t="n">
-        <v>692.5532710454991</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="D5" t="n">
-        <v>692.5532710454991</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E5" t="n">
-        <v>692.5532710454991</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
         <v>362.7606506793151</v>
@@ -4568,16 +4568,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4595,22 +4595,22 @@
         <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>1782.718007305293</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V5" t="n">
-        <v>1451.655119961722</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W5" t="n">
-        <v>1451.655119961722</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="X5" t="n">
-        <v>1451.655119961722</v>
+        <v>1473.382518524585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1061.515787985911</v>
+        <v>1473.382518524585</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646.1741707752496</v>
+        <v>560.2603676655167</v>
       </c>
       <c r="C6" t="n">
-        <v>646.1741707752496</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="D6" t="n">
-        <v>497.2397611139984</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="E6" t="n">
-        <v>338.0023061085429</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F6" t="n">
-        <v>191.4677481354279</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G6" t="n">
         <v>80.03532540581918</v>
@@ -4644,16 +4644,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K6" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N6" t="n">
         <v>1166.88538687358</v>
@@ -4662,34 +4662,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1571.516725807463</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1343.415135940727</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1108.263027708984</v>
+        <v>1022.258023158672</v>
       </c>
       <c r="W6" t="n">
-        <v>854.0256709807825</v>
+        <v>768.0206664304706</v>
       </c>
       <c r="X6" t="n">
-        <v>646.1741707752496</v>
+        <v>768.0206664304706</v>
       </c>
       <c r="Y6" t="n">
-        <v>646.1741707752496</v>
+        <v>560.2603676655167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514519</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356783</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356783</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>269.4768756534347</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.947204133449</v>
+        <v>1032.246258867474</v>
       </c>
       <c r="C8" t="n">
-        <v>1306.984687193037</v>
+        <v>1032.246258867474</v>
       </c>
       <c r="D8" t="n">
-        <v>948.718988586287</v>
+        <v>673.9805602607235</v>
       </c>
       <c r="E8" t="n">
-        <v>948.718988586287</v>
+        <v>467.2772973827372</v>
       </c>
       <c r="F8" t="n">
-        <v>537.7330837966794</v>
+        <v>56.29139259312969</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7422914225561</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7422914225561</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="I8" t="n">
         <v>44.34100425941048</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420291</v>
+        <v>156.8280559420289</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002228</v>
+        <v>376.1555054002225</v>
       </c>
       <c r="L8" t="n">
         <v>685.152362570791</v>
@@ -4817,13 +4817,13 @@
         <v>1446.817915733703</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659503</v>
+        <v>1798.139187659504</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284327</v>
+        <v>2063.482764284328</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228509</v>
+        <v>2214.57199322851</v>
       </c>
       <c r="R8" t="n">
         <v>2217.050212970524</v>
@@ -4832,22 +4832,22 @@
         <v>2217.050212970524</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970524</v>
+        <v>2007.052422290549</v>
       </c>
       <c r="U8" t="n">
-        <v>1963.446268866831</v>
+        <v>1753.448478186856</v>
       </c>
       <c r="V8" t="n">
-        <v>1963.446268866831</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="W8" t="n">
-        <v>1675.947204133449</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.947204133449</v>
+        <v>1422.385590843286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1675.947204133449</v>
+        <v>1032.246258867474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.2460321684571</v>
+        <v>473.278851348383</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7930028873301</v>
+        <v>298.825822067256</v>
       </c>
       <c r="D9" t="n">
-        <v>458.9019880361819</v>
+        <v>298.825822067256</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9019880361819</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>139.5883670618005</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803673</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="I9" t="n">
         <v>44.34100425941048</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113468</v>
+        <v>92.51967467113462</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154154</v>
+        <v>253.0195209154152</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572528</v>
+        <v>515.1539122572525</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449716</v>
+        <v>840.4092510449711</v>
       </c>
       <c r="N9" t="n">
         <v>1188.681775738682</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.06330007421</v>
+        <v>1485.063300074209</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566939</v>
+        <v>1703.602536566938</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257636</v>
+        <v>1799.771032257635</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285081</v>
+        <v>1769.11948028508</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285081</v>
+        <v>1630.554864058083</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838233</v>
+        <v>1435.931352611235</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893355</v>
+        <v>1207.831179666357</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661613</v>
+        <v>972.6790714346143</v>
       </c>
       <c r="W9" t="n">
-        <v>857.0063309334109</v>
+        <v>849.2544871334048</v>
       </c>
       <c r="X9" t="n">
-        <v>857.0063309334109</v>
+        <v>849.2544871334048</v>
       </c>
       <c r="Y9" t="n">
-        <v>649.2460321684571</v>
+        <v>641.494188368451</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.2072378461983</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="C10" t="n">
-        <v>192.2540978418036</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="D10" t="n">
-        <v>192.2540978418036</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="E10" t="n">
         <v>44.34100425941048</v>
@@ -4963,49 +4963,49 @@
         <v>44.34100425941048</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016703</v>
+        <v>95.74470838016694</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810353</v>
+        <v>191.4295496810351</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422648</v>
+        <v>295.5740818422645</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091232</v>
+        <v>405.0998157091228</v>
       </c>
       <c r="O10" t="n">
-        <v>485.951469271271</v>
+        <v>485.9514692712704</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139715</v>
+        <v>536.072055313971</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139715</v>
+        <v>536.072055313971</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139715</v>
+        <v>536.072055313971</v>
       </c>
       <c r="S10" t="n">
-        <v>337.2072378461983</v>
+        <v>536.072055313971</v>
       </c>
       <c r="T10" t="n">
-        <v>337.2072378461983</v>
+        <v>536.072055313971</v>
       </c>
       <c r="U10" t="n">
-        <v>337.2072378461983</v>
+        <v>299.0254924652974</v>
       </c>
       <c r="V10" t="n">
-        <v>337.2072378461983</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="W10" t="n">
-        <v>337.2072378461983</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="X10" t="n">
-        <v>337.2072378461983</v>
+        <v>44.34100425941048</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.2072378461983</v>
+        <v>44.34100425941048</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1858.956087394655</v>
+        <v>1898.076467649855</v>
       </c>
       <c r="C11" t="n">
-        <v>1489.993570454243</v>
+        <v>1529.113950709443</v>
       </c>
       <c r="D11" t="n">
-        <v>1131.727871847493</v>
+        <v>1170.848252102692</v>
       </c>
       <c r="E11" t="n">
-        <v>1131.727871847493</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194422</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087832</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.99935034538</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3672.904689377403</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048273</v>
+        <v>3419.410747498932</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704702</v>
+        <v>3088.347860155361</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434588</v>
+        <v>2735.579204885247</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.695259434588</v>
+        <v>2362.113446624167</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.555927458777</v>
+        <v>2284.676307713976</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626179</v>
+        <v>676.7125526339504</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1184.669118590479</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720357</v>
+        <v>1720.478428291689</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.7319622061442</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>793.7957792782373</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>643.6791398659016</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="E13" t="n">
-        <v>495.7660462835086</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
         <v>77.53766591592078</v>
@@ -5197,7 +5197,7 @@
         <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648147</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177249</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.787147971362</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.369977934401</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.380427036384</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.380427036384</v>
+        <v>365.7608055583767</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400655</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121586</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998229</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998229</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998229</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998229</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138354</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703053</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098229</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>814.419420881916</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871861</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892758</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,22 +5762,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797172</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797172</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797172</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797172</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400742</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138434</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703139</v>
+        <v>695.502065570309</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,28 +6236,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,10 +6394,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6455,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138412</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3584617859343</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2418223735986</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3287287912054</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138412</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597625</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597625</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597625</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614392</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7631,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,34 +7807,34 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>979.2799367326788</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>87.8214741639415</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184545</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.575171134965</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411828</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>40.14984978246078</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927369</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864789132</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>170.2393389614408</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393562</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891674</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823144</v>
+        <v>46.45968844822998</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>121.5862749664483</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.5498640939326</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>32.89260457060007</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.28295407562273</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347512</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459297</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9.000252501566109</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>72.11969353038631</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>62.35543909864933</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855341</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855346</v>
@@ -26323,25 +26323,25 @@
         <v>347979.891030338</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="J2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.6348527529</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527528</v>
@@ -26350,10 +26350,10 @@
         <v>383394.6348527528</v>
       </c>
       <c r="O2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.2442861775</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264104</v>
+        <v>12262.85603264084</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674521</v>
+        <v>395943.9567674523</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704282</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.708981578005478e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.9447285446</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487773</v>
+        <v>91259.95686487775</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949363</v>
+        <v>3074.447349949334</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931123</v>
+        <v>103409.2608931124</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.57413202341</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888978</v>
       </c>
       <c r="D4" t="n">
         <v>170817.8827607424</v>
       </c>
       <c r="E4" t="n">
-        <v>15941.16541224543</v>
+        <v>15941.16541224537</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189191</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16046.5839718919</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189195</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.58397189195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16046.58397189195</v>
+      </c>
+      <c r="P4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189199</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189204</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.583971892</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16046.58397189199</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
@@ -26476,7 +26476,7 @@
         <v>86153.75444404154</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536884.4270810545</v>
+        <v>-536884.4270810548</v>
       </c>
       <c r="C6" t="n">
-        <v>-261917.4755454129</v>
+        <v>-261917.4755454127</v>
       </c>
       <c r="D6" t="n">
-        <v>120760.3474481097</v>
+        <v>120760.3474481098</v>
       </c>
       <c r="E6" t="n">
-        <v>-149042.7162167453</v>
+        <v>-149263.8475307201</v>
       </c>
       <c r="F6" t="n">
-        <v>76917.25228652569</v>
+        <v>76882.51436109007</v>
       </c>
       <c r="G6" t="n">
-        <v>266225.5210569541</v>
+        <v>266190.7831315182</v>
       </c>
       <c r="H6" t="n">
-        <v>266225.5210569538</v>
+        <v>266190.7831315176</v>
       </c>
       <c r="I6" t="n">
-        <v>266225.5210569535</v>
+        <v>266190.7831315183</v>
       </c>
       <c r="J6" t="n">
-        <v>217160.5763284092</v>
+        <v>217125.8384029735</v>
       </c>
       <c r="K6" t="n">
-        <v>174965.5641920761</v>
+        <v>174930.8262666404</v>
       </c>
       <c r="L6" t="n">
-        <v>263151.0737070043</v>
+        <v>263116.3357815688</v>
       </c>
       <c r="M6" t="n">
-        <v>162816.2601638413</v>
+        <v>162781.5222384057</v>
       </c>
       <c r="N6" t="n">
-        <v>216385.9469249302</v>
+        <v>216351.2089994946</v>
       </c>
       <c r="O6" t="n">
-        <v>266225.5210569537</v>
+        <v>266190.7831315181</v>
       </c>
       <c r="P6" t="n">
-        <v>266225.5210569538</v>
+        <v>266190.7831315181</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="D3" t="n">
-        <v>863.62344985732</v>
+        <v>863.6234498573197</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.97001655535802e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319635873</v>
+        <v>9.912785319635645</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576311</v>
+        <v>338.6177873576314</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267227</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646784</v>
+        <v>12.14759651646783</v>
       </c>
       <c r="E4" t="n">
         <v>414.9582707063787</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646784</v>
+        <v>12.14759651646773</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063785</v>
+        <v>414.9582707063787</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646784</v>
+        <v>12.14759651646783</v>
       </c>
       <c r="M4" t="n">
         <v>414.9582707063787</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>236.7317118679367</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>224.532442474144</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0503695630414</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27506,22 +27506,22 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>15.41997243790243</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377097</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27594,7 +27594,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>26.70764993131996</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>80.38135157918936</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.18913534472267</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>84.09892026570509</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>33.8664908621073</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.1391814657736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>177.2941398230554</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>303.9186869163651</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151417</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>64.61689463136503</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>131.7129608620021</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433999</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>129.5046447027222</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>23.74321249427712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332436</v>
+        <v>16.8905104633244</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099054</v>
+        <v>21.09786070099057</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313612</v>
+        <v>107.2691031313613</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>51.55798556746564</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.96928311084472e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31291,10 +31291,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N5" t="n">
         <v>612.3808166839008</v>
@@ -31303,22 +31303,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R5" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T5" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J6" t="n">
         <v>173.4885040076062</v>
@@ -31370,19 +31370,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q6" t="n">
         <v>234.3999545349506</v>
@@ -31391,10 +31391,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U6" t="n">
         <v>0.1208081129062761</v>
@@ -31440,22 +31440,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K7" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O7" t="n">
         <v>217.5982526595396</v>
@@ -31467,13 +31467,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S7" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U7" t="n">
         <v>0.08397154077419852</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753043</v>
+        <v>3.471853064753041</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940211</v>
+        <v>35.55611519940209</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788918</v>
+        <v>133.8486152788917</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545838</v>
+        <v>294.6691890545837</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855802</v>
+        <v>441.63272928558</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160163</v>
+        <v>547.884452516016</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563182</v>
+        <v>609.6270194563178</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765477</v>
+        <v>619.4914219765475</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639097</v>
+        <v>584.9681830639095</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278189</v>
+        <v>499.2568105278186</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463504</v>
+        <v>374.9210726463502</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787935</v>
+        <v>218.0887900787934</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306003</v>
+        <v>79.11485171306001</v>
       </c>
       <c r="T8" t="n">
         <v>15.19803679095645</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802433</v>
+        <v>0.2777482451802432</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296877</v>
+        <v>1.857605156296876</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213037</v>
+        <v>17.94055506213036</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566002</v>
+        <v>63.95701963566</v>
       </c>
       <c r="J9" t="n">
         <v>175.5029503148729</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867637</v>
+        <v>299.9624957867636</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564777</v>
+        <v>403.3365932564775</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722393</v>
+        <v>470.6747801722391</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668795</v>
+        <v>483.1321410668793</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510381</v>
+        <v>441.9715215510379</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423396</v>
+        <v>354.7211109423395</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230891</v>
+        <v>237.121668723089</v>
       </c>
       <c r="R9" t="n">
         <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911083</v>
+        <v>34.50420103911082</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442234</v>
+        <v>7.487452362442231</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222108655458472</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55735376203779</v>
+        <v>1.557353762037789</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066327</v>
+        <v>13.84629072066326</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291828</v>
+        <v>46.83387495291826</v>
       </c>
       <c r="J10" t="n">
         <v>110.1049109760717</v>
       </c>
       <c r="K10" t="n">
-        <v>180.936191625845</v>
+        <v>180.9361916258449</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306002</v>
+        <v>231.5360311306001</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801601</v>
+        <v>244.12228108016</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762013</v>
+        <v>238.3175988762011</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833052</v>
+        <v>220.1248753833051</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377341</v>
+        <v>188.354858637734</v>
       </c>
       <c r="Q10" t="n">
         <v>130.4071409284553</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580825</v>
+        <v>70.02428824580822</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387675</v>
+        <v>27.14042874387674</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343283</v>
+        <v>6.65414789234328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842501</v>
+        <v>0.08494656883842497</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>346.5700931427878</v>
       </c>
       <c r="M12" t="n">
         <v>655.2214742821483</v>
@@ -31853,16 +31853,16 @@
         <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>225.116947538281</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627655</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991321</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738261</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590493</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576914</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N5" t="n">
         <v>382.9677530873099</v>
@@ -34951,7 +34951,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q5" t="n">
         <v>148.31198861839</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K6" t="n">
         <v>158.6780472169987</v>
@@ -35021,7 +35021,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N6" t="n">
         <v>346.2449737319509</v>
@@ -35033,7 +35033,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M7" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P7" t="n">
         <v>48.46489236084162</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278975</v>
+        <v>113.6232845278974</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405996</v>
+        <v>221.5428782405995</v>
       </c>
       <c r="L8" t="n">
-        <v>312.118037546029</v>
+        <v>312.1180375460288</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290455</v>
+        <v>379.2807862290451</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799568</v>
+        <v>390.0783583799566</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422229</v>
+        <v>354.8699716422227</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725493</v>
+        <v>268.0238147725491</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719009</v>
+        <v>152.6153827719008</v>
       </c>
       <c r="R8" t="n">
-        <v>2.50325226466137</v>
+        <v>2.503252264661285</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820625</v>
+        <v>48.6653236482062</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124047</v>
+        <v>162.1210568124046</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766035</v>
+        <v>264.7822134766033</v>
       </c>
       <c r="M9" t="n">
-        <v>328.540746250221</v>
+        <v>328.5407462502208</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835461</v>
+        <v>351.790428983546</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065937</v>
+        <v>299.3752771065935</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280094</v>
+        <v>220.7467035280093</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706758</v>
+        <v>97.1398946370675</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530965</v>
+        <v>51.92293345530956</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936192</v>
+        <v>96.65135484936181</v>
       </c>
       <c r="M10" t="n">
-        <v>105.196497132555</v>
+        <v>105.1964971325549</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109681</v>
+        <v>110.632054410968</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146236</v>
+        <v>81.66833693146228</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858647</v>
+        <v>50.62685458858641</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>208.0157133629136</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601299</v>
@@ -35501,16 +35501,16 @@
         <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309383657</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324654</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904928</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899099</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
